--- a/data/trans_dic/P5_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de jardín en su vivienda</t>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>18,16%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,07; 27,0</t>
+          <t>14,02; 26,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,98; 28,3</t>
+          <t>14,8; 28,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,63; 20,55</t>
+          <t>9,76; 20,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,29; 20,9</t>
+          <t>9,87; 21,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 21,35</t>
+          <t>13,24; 21,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,85; 22,49</t>
+          <t>13,86; 22,67</t>
         </is>
       </c>
     </row>
@@ -686,17 +687,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>13,52%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 16,75</t>
+          <t>7,37; 16,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 20,7</t>
+          <t>9,14; 20,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 16,61</t>
+          <t>7,98; 16,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 18,32</t>
+          <t>8,11; 17,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,9; 15,59</t>
+          <t>8,9; 15,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,98; 17,59</t>
+          <t>9,83; 17,79</t>
         </is>
       </c>
     </row>
@@ -761,12 +762,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>13,96%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,59; 15,26</t>
+          <t>7,48; 15,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 29,84</t>
+          <t>11,44; 23,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 16,45</t>
+          <t>9,02; 16,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 19,17</t>
+          <t>8,54; 16,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,48</t>
+          <t>9,1; 14,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 22,64</t>
+          <t>11,03; 17,68</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>13,17%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,09; 24,1</t>
+          <t>11,64; 23,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,64; 17,19</t>
+          <t>8,97; 16,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 16,67</t>
+          <t>9,27; 16,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,07; 19,85</t>
+          <t>10,15; 18,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,81; 18,12</t>
+          <t>11,58; 17,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 17,11</t>
+          <t>10,55; 16,08</t>
         </is>
       </c>
     </row>
@@ -926,17 +927,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>18,52%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,33; 24,83</t>
+          <t>14,58; 24,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,42; 26,04</t>
+          <t>15,6; 26,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 22,4</t>
+          <t>12,84; 22,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,37; 20,83</t>
+          <t>11,77; 21,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,8; 21,67</t>
+          <t>14,93; 21,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,39; 21,92</t>
+          <t>15,12; 22,39</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1002,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>14,77%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,27; 23,95</t>
+          <t>13,8; 24,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,79; 22,04</t>
+          <t>10,55; 20,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 17,6</t>
+          <t>9,22; 17,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,66; 19,94</t>
+          <t>10,31; 20,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,21; 18,71</t>
+          <t>12,4; 18,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,42; 18,77</t>
+          <t>11,56; 19,14</t>
         </is>
       </c>
     </row>
@@ -1086,17 +1087,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>15,11%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,95; 18,09</t>
+          <t>13,94; 18,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,62</t>
+          <t>14,3; 18,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,65; 15,09</t>
+          <t>11,59; 15,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,32; 16,24</t>
+          <t>11,99; 15,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,83</t>
+          <t>13,34; 15,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,16; 17,3</t>
+          <t>13,78; 16,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de jardín en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>102032</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>105199</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>66981</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>71074</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>169012</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>176274</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>71922; 135472</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>74313; 142343</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>45166; 96749</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>46257; 102273</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>129247; 209726</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>134582; 220093</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>65690</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>82056</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>61657</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>65643</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>127347</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>147698</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41523; 94884</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>52388; 116505</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>41404; 87495</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42114; 91675</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>96351; 164500</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>107341; 194336</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>74977</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>110027</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>84296</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>85298</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>159273</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>195325</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>50547; 104222</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>78551; 160059</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62598; 115998</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>60856; 113969</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>124686; 194738</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>154223; 247300</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>103830</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>81584</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>89911</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>93903</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>193741</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>175486</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>74345; 148261</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>58047; 109647</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>65221; 117151</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>69579; 124547</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>155355; 239405</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>140596; 214303</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>99571</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>103751</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>85645</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>82301</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>185216</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>186052</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>74617; 125628</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>77282; 133124</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>64489; 112359</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>59906; 108333</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>151474; 219429</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>151847; 224833</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>100150</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>83994</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>93625</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>102498</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>193775</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>186492</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>75446; 131654</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>57535; 112705</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>67420; 124792</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>73979; 143530</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>158475; 235303</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>146015; 241665</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>386.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>546250</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>566611</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>482114</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>500717</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1028364</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1067327</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>480819; 621240</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>493232; 650026</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>418554; 545497</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>433149; 573192</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>942021; 1124152</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>973495; 1181679</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>